--- a/NHL Elo Ratings.xlsx
+++ b/NHL Elo Ratings.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21727"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\benco.DESKTOP-K1JS793\Documents\RMIT\2019 RMIT SEM 1\SPORTS ANALYTICS\Course_Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{4D2BAF7B-3F4E-49A8-84D9-7E4BD3850EF3}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA7D9DB9-5653-4C89-92D1-5AA23ED530B3}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Elo 25" sheetId="3" r:id="rId1"/>
@@ -79,7 +79,15 @@
     <definedName name="solver_ver" localSheetId="0" hidden="1">3</definedName>
     <definedName name="solver_ver" localSheetId="1" hidden="1">3</definedName>
   </definedNames>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -188,7 +196,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1023,11 +1031,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B32"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="A32" sqref="A32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1049,7 +1057,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="1">
-        <v>1432.2615241728417</v>
+        <v>1430.9660863768017</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
@@ -1057,7 +1065,7 @@
         <v>3</v>
       </c>
       <c r="B3" s="1">
-        <v>1474.1070973236485</v>
+        <v>1463.8477978775866</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
@@ -1065,7 +1073,7 @@
         <v>6</v>
       </c>
       <c r="B4" s="1">
-        <v>1587.7042731445247</v>
+        <v>1546.3514313926664</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
@@ -1073,7 +1081,7 @@
         <v>7</v>
       </c>
       <c r="B5" s="1">
-        <v>1358.4446269530943</v>
+        <v>1588.4384476666928</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
@@ -1081,7 +1089,7 @@
         <v>8</v>
       </c>
       <c r="B6" s="1">
-        <v>1580.2241556241995</v>
+        <v>1581.4293980375708</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
@@ -1089,7 +1097,7 @@
         <v>10</v>
       </c>
       <c r="B7" s="1">
-        <v>1560.2510306477714</v>
+        <v>1484.9893297803367</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
@@ -1097,7 +1105,7 @@
         <v>12</v>
       </c>
       <c r="B8" s="1">
-        <v>1478.4365847959293</v>
+        <v>1399.7105658086919</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
@@ -1105,7 +1113,7 @@
         <v>13</v>
       </c>
       <c r="B9" s="1">
-        <v>1455.0546631461393</v>
+        <v>1593.1685691304601</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.3">
@@ -1113,7 +1121,7 @@
         <v>14</v>
       </c>
       <c r="B10" s="1">
-        <v>1543.3686674108387</v>
+        <v>1560.1411251595034</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.3">
@@ -1121,7 +1129,7 @@
         <v>15</v>
       </c>
       <c r="B11" s="1">
-        <v>1521.2600695930719</v>
+        <v>1489.7790468899043</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.3">
@@ -1129,7 +1137,7 @@
         <v>17</v>
       </c>
       <c r="B12" s="1">
-        <v>1424.7127180847765</v>
+        <v>1449.5886173965416</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.3">
@@ -1137,7 +1145,7 @@
         <v>18</v>
       </c>
       <c r="B13" s="1">
-        <v>1438.287173113451</v>
+        <v>1483.1740070347435</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.3">
@@ -1145,7 +1153,7 @@
         <v>20</v>
       </c>
       <c r="B14" s="1">
-        <v>1491.1107271345413</v>
+        <v>1450.4722758284543</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.3">
@@ -1153,7 +1161,7 @@
         <v>21</v>
       </c>
       <c r="B15" s="1">
-        <v>1433.8457685504711</v>
+        <v>1411.5979513563941</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.3">
@@ -1161,7 +1169,7 @@
         <v>19</v>
       </c>
       <c r="B16" s="1">
-        <v>1439.1687214959225</v>
+        <v>1524.6826783579033</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.3">
@@ -1169,7 +1177,7 @@
         <v>4</v>
       </c>
       <c r="B17" s="1">
-        <v>1542.4883487921616</v>
+        <v>1472.3044515040922</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.3">
@@ -1177,7 +1185,7 @@
         <v>22</v>
       </c>
       <c r="B18" s="1">
-        <v>1521.0901423572845</v>
+        <v>1649.3872608147856</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.3">
@@ -1185,7 +1193,7 @@
         <v>23</v>
       </c>
       <c r="B19" s="1">
-        <v>1417.9724317910595</v>
+        <v>1439.17595523666</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.3">
@@ -1193,7 +1201,7 @@
         <v>16</v>
       </c>
       <c r="B20" s="1">
-        <v>1561.382042502067</v>
+        <v>1496.218859579679</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.3">
@@ -1201,7 +1209,7 @@
         <v>24</v>
       </c>
       <c r="B21" s="1">
-        <v>1402.7031351028113</v>
+        <v>1515.1989924810539</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.3">
@@ -1209,7 +1217,7 @@
         <v>25</v>
       </c>
       <c r="B22" s="1">
-        <v>1409.0930307383749</v>
+        <v>1437.1835217249754</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.3">
@@ -1217,7 +1225,7 @@
         <v>26</v>
       </c>
       <c r="B23" s="1">
-        <v>1480.4899947589213</v>
+        <v>1455.1379427661054</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.3">
@@ -1225,7 +1233,7 @@
         <v>27</v>
       </c>
       <c r="B24" s="1">
-        <v>1572.0982118877007</v>
+        <v>1442.7548841196974</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.3">
@@ -1233,7 +1241,7 @@
         <v>2</v>
       </c>
       <c r="B25" s="1">
-        <v>1561.2501629461158</v>
+        <v>1479.2855895107873</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.3">
@@ -1241,7 +1249,7 @@
         <v>29</v>
       </c>
       <c r="B26" s="1">
-        <v>1585.1132713782004</v>
+        <v>1389.5274859123795</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.3">
@@ -1249,7 +1257,7 @@
         <v>30</v>
       </c>
       <c r="B27" s="1">
-        <v>1680.830959560245</v>
+        <v>1627.382055487345</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.3">
@@ -1257,7 +1265,7 @@
         <v>5</v>
       </c>
       <c r="B28" s="1">
-        <v>1499.8738355836367</v>
+        <v>1600.2647656067888</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.3">
@@ -1265,7 +1273,7 @@
         <v>9</v>
       </c>
       <c r="B29" s="1">
-        <v>1453.5427941909602</v>
+        <v>1428.6541148226534</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.3">
@@ -1273,7 +1281,7 @@
         <v>31</v>
       </c>
       <c r="B30" s="1">
-        <v>1515.877134421705</v>
+        <v>1496.954759822446</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.3">
@@ -1281,7 +1289,7 @@
         <v>11</v>
       </c>
       <c r="B31" s="1">
-        <v>1550.6034818239032</v>
+        <v>1567.674455292718</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.3">
@@ -1289,7 +1297,7 @@
         <v>28</v>
       </c>
       <c r="B32" s="1">
-        <v>1527.3532209754812</v>
+        <v>1544.5575691119975</v>
       </c>
     </row>
   </sheetData>
@@ -1298,11 +1306,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:B32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+      <selection activeCell="A26" sqref="A26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1324,7 +1332,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="1">
-        <v>1450.0947987832474</v>
+        <v>1440.5416480756116</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
@@ -1332,7 +1340,7 @@
         <v>3</v>
       </c>
       <c r="B3" s="1">
-        <v>1498.6164591233839</v>
+        <v>1467.3760174583542</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
@@ -1340,7 +1348,7 @@
         <v>6</v>
       </c>
       <c r="B4" s="1">
-        <v>1659.0328249194902</v>
+        <v>1532.2894419509507</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
@@ -1348,7 +1356,7 @@
         <v>7</v>
       </c>
       <c r="B5" s="1">
-        <v>1301.1018206218293</v>
+        <v>1496.1980018285844</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
@@ -1356,7 +1364,7 @@
         <v>8</v>
       </c>
       <c r="B6" s="1">
-        <v>1516.1418153343484</v>
+        <v>1587.9442359797263</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
@@ -1364,7 +1372,7 @@
         <v>10</v>
       </c>
       <c r="B7" s="1">
-        <v>1630.7702663380444</v>
+        <v>1475.6421619879261</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
@@ -1372,7 +1380,7 @@
         <v>12</v>
       </c>
       <c r="B8" s="1">
-        <v>1502.5141713301548</v>
+        <v>1420.8199664865692</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
@@ -1380,7 +1388,7 @@
         <v>13</v>
       </c>
       <c r="B9" s="1">
-        <v>1507.970764037377</v>
+        <v>1486.8441309188061</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.3">
@@ -1388,7 +1396,7 @@
         <v>14</v>
       </c>
       <c r="B10" s="1">
-        <v>1585.956416457306</v>
+        <v>1529.5108199138626</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.3">
@@ -1396,7 +1404,7 @@
         <v>15</v>
       </c>
       <c r="B11" s="1">
-        <v>1537.6652546274543</v>
+        <v>1500.0238537287662</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.3">
@@ -1404,7 +1412,7 @@
         <v>17</v>
       </c>
       <c r="B12" s="1">
-        <v>1421.102235929163</v>
+        <v>1418.5914694661917</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.3">
@@ -1412,7 +1420,7 @@
         <v>18</v>
       </c>
       <c r="B13" s="1">
-        <v>1408.1667589213146</v>
+        <v>1480.2469959386694</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.3">
@@ -1420,7 +1428,7 @@
         <v>20</v>
       </c>
       <c r="B14" s="1">
-        <v>1514.2798919069037</v>
+        <v>1452.7312366260981</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.3">
@@ -1428,7 +1436,7 @@
         <v>21</v>
       </c>
       <c r="B15" s="1">
-        <v>1424.8829907571812</v>
+        <v>1435.1794968421482</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.3">
@@ -1436,7 +1444,7 @@
         <v>19</v>
       </c>
       <c r="B16" s="1">
-        <v>1405.6023129081161</v>
+        <v>1495.9685101734926</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.3">
@@ -1444,7 +1452,7 @@
         <v>4</v>
       </c>
       <c r="B17" s="1">
-        <v>1502.5608138500304</v>
+        <v>1521.4509543049451</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.3">
@@ -1452,7 +1460,7 @@
         <v>22</v>
       </c>
       <c r="B18" s="1">
-        <v>1538.4734343105765</v>
+        <v>1545.4154522067524</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.3">
@@ -1460,7 +1468,7 @@
         <v>23</v>
       </c>
       <c r="B19" s="1">
-        <v>1398.7089934579299</v>
+        <v>1446.2171384603437</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.3">
@@ -1468,7 +1476,7 @@
         <v>16</v>
       </c>
       <c r="B20" s="1">
-        <v>1541.2457095663465</v>
+        <v>1558.8379359598057</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.3">
@@ -1476,7 +1484,7 @@
         <v>24</v>
       </c>
       <c r="B21" s="1">
-        <v>1372.7242887753018</v>
+        <v>1462.0335486764723</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.3">
@@ -1484,7 +1492,7 @@
         <v>25</v>
       </c>
       <c r="B22" s="1">
-        <v>1380.3521457241488</v>
+        <v>1426.9622383126757</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.3">
@@ -1492,7 +1500,7 @@
         <v>26</v>
       </c>
       <c r="B23" s="1">
-        <v>1500.7994121171444</v>
+        <v>1456.4749199978723</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.3">
@@ -1500,7 +1508,7 @@
         <v>27</v>
       </c>
       <c r="B24" s="1">
-        <v>1544.6002552842838</v>
+        <v>1529.4865508422215</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.3">
@@ -1508,7 +1516,7 @@
         <v>2</v>
       </c>
       <c r="B25" s="1">
-        <v>1540.1404717552496</v>
+        <v>1539.5336749693656</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.3">
@@ -1516,7 +1524,7 @@
         <v>29</v>
       </c>
       <c r="B26" s="1">
-        <v>1639.4954575916101</v>
+        <v>1472.0355744535143</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.3">
@@ -1524,7 +1532,7 @@
         <v>30</v>
       </c>
       <c r="B27" s="1">
-        <v>1700.3610111187209</v>
+        <v>1638.7445519374132</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.3">
@@ -1532,7 +1540,7 @@
         <v>5</v>
       </c>
       <c r="B28" s="1">
-        <v>1486.4739138281539</v>
+        <v>1571.6152206680649</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.3">
@@ -1540,7 +1548,7 @@
         <v>9</v>
       </c>
       <c r="B29" s="1">
-        <v>1423.6667757509715</v>
+        <v>1476.5241853032007</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.3">
@@ -1548,7 +1556,7 @@
         <v>31</v>
       </c>
       <c r="B30" s="1">
-        <v>1486.5803113161824</v>
+        <v>1542.1558256488765</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.3">
@@ -1556,7 +1564,7 @@
         <v>11</v>
       </c>
       <c r="B31" s="1">
-        <v>1615.5914146925886</v>
+        <v>1526.7339029530672</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.3">
@@ -1564,7 +1572,7 @@
         <v>28</v>
       </c>
       <c r="B32" s="1">
-        <v>1464.3268130397023</v>
+        <v>1565.8703258917558</v>
       </c>
     </row>
   </sheetData>
@@ -1573,11 +1581,11 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:F33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="A2" sqref="A2:B32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1600,7 +1608,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="1">
-        <v>1443.1524031631864</v>
+        <v>1443.1533803506613</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
@@ -1608,7 +1616,7 @@
         <v>3</v>
       </c>
       <c r="B3" s="1">
-        <v>1474.8939675936831</v>
+        <v>1474.8942879955264</v>
       </c>
       <c r="F3" s="1"/>
     </row>
@@ -1617,7 +1625,7 @@
         <v>6</v>
       </c>
       <c r="B4" s="1">
-        <v>1569.0832159396346</v>
+        <v>1569.0831085656712</v>
       </c>
       <c r="F4" s="1"/>
     </row>
@@ -1626,7 +1634,7 @@
         <v>7</v>
       </c>
       <c r="B5" s="1">
-        <v>1434.2714937240487</v>
+        <v>1434.2706488505928</v>
       </c>
       <c r="F5" s="1"/>
     </row>
@@ -1635,7 +1643,7 @@
         <v>8</v>
       </c>
       <c r="B6" s="1">
-        <v>1565.8860928717713</v>
+        <v>1565.8864605285928</v>
       </c>
       <c r="F6" s="1"/>
     </row>
@@ -1644,7 +1652,7 @@
         <v>10</v>
       </c>
       <c r="B7" s="1">
-        <v>1535.2563802886764</v>
+        <v>1535.2562199246368</v>
       </c>
       <c r="F7" s="1"/>
     </row>
@@ -1653,7 +1661,7 @@
         <v>12</v>
       </c>
       <c r="B8" s="1">
-        <v>1461.0522808748201</v>
+        <v>1461.0529181987856</v>
       </c>
       <c r="F8" s="1"/>
     </row>
@@ -1662,7 +1670,7 @@
         <v>13</v>
       </c>
       <c r="B9" s="1">
-        <v>1488.8896687852073</v>
+        <v>1488.8902927579345</v>
       </c>
       <c r="F9" s="1"/>
     </row>
@@ -1671,7 +1679,7 @@
         <v>14</v>
       </c>
       <c r="B10" s="1">
-        <v>1542.4492985890952</v>
+        <v>1542.4487139679729</v>
       </c>
       <c r="F10" s="1"/>
     </row>
@@ -1680,7 +1688,7 @@
         <v>15</v>
       </c>
       <c r="B11" s="1">
-        <v>1513.2588904890438</v>
+        <v>1513.2590765249065</v>
       </c>
       <c r="F11" s="1"/>
     </row>
@@ -1689,7 +1697,7 @@
         <v>17</v>
       </c>
       <c r="B12" s="1">
-        <v>1433.412147725161</v>
+        <v>1433.4116167768857</v>
       </c>
       <c r="F12" s="1"/>
     </row>
@@ -1698,7 +1706,7 @@
         <v>18</v>
       </c>
       <c r="B13" s="1">
-        <v>1451.407058959772</v>
+        <v>1451.4073481801877</v>
       </c>
       <c r="F13" s="1"/>
     </row>
@@ -1707,7 +1715,7 @@
         <v>20</v>
       </c>
       <c r="B14" s="1">
-        <v>1478.2732948633663</v>
+        <v>1478.272839036686</v>
       </c>
       <c r="F14" s="1"/>
     </row>
@@ -1716,7 +1724,7 @@
         <v>21</v>
       </c>
       <c r="B15" s="1">
-        <v>1420.5881058533287</v>
+        <v>1420.5884209630492</v>
       </c>
       <c r="F15" s="1"/>
     </row>
@@ -1725,7 +1733,7 @@
         <v>19</v>
       </c>
       <c r="B16" s="1">
-        <v>1467.0635276909306</v>
+        <v>1467.0635297818574</v>
       </c>
       <c r="F16" s="1"/>
     </row>
@@ -1734,7 +1742,7 @@
         <v>4</v>
       </c>
       <c r="B17" s="1">
-        <v>1522.1688092268396</v>
+        <v>1522.1687718669973</v>
       </c>
       <c r="F17" s="1"/>
     </row>
@@ -1743,7 +1751,7 @@
         <v>22</v>
       </c>
       <c r="B18" s="1">
-        <v>1548.3428623066411</v>
+        <v>1548.3431687676616</v>
       </c>
       <c r="F18" s="1"/>
     </row>
@@ -1752,7 +1760,7 @@
         <v>23</v>
       </c>
       <c r="B19" s="1">
-        <v>1428.8363301408833</v>
+        <v>1428.836018950476</v>
       </c>
       <c r="F19" s="1"/>
     </row>
@@ -1761,7 +1769,7 @@
         <v>16</v>
       </c>
       <c r="B20" s="1">
-        <v>1549.7418664021848</v>
+        <v>1549.7414376545566</v>
       </c>
       <c r="F20" s="1"/>
     </row>
@@ -1770,7 +1778,7 @@
         <v>24</v>
       </c>
       <c r="B21" s="1">
-        <v>1438.3567848908626</v>
+        <v>1438.3561952415309</v>
       </c>
       <c r="F21" s="1"/>
     </row>
@@ -1779,7 +1787,7 @@
         <v>25</v>
       </c>
       <c r="B22" s="1">
-        <v>1416.0096259115514</v>
+        <v>1416.0091814892382</v>
       </c>
       <c r="F22" s="1"/>
     </row>
@@ -1788,7 +1796,7 @@
         <v>26</v>
       </c>
       <c r="B23" s="1">
-        <v>1471.1199308791215</v>
+        <v>1471.1200127754396</v>
       </c>
       <c r="F23" s="1"/>
     </row>
@@ -1797,7 +1805,7 @@
         <v>27</v>
       </c>
       <c r="B24" s="1">
-        <v>1530.6481664123446</v>
+        <v>1530.6482103375336</v>
       </c>
       <c r="F24" s="1"/>
     </row>
@@ -1806,7 +1814,7 @@
         <v>2</v>
       </c>
       <c r="B25" s="1">
-        <v>1534.078919363832</v>
+        <v>1534.0794253505487</v>
       </c>
       <c r="F25" s="1"/>
     </row>
@@ -1815,7 +1823,7 @@
         <v>29</v>
       </c>
       <c r="B26" s="1">
-        <v>1535.371070135046</v>
+        <v>1535.3714727931872</v>
       </c>
       <c r="F26" s="1"/>
     </row>
@@ -1824,7 +1832,7 @@
         <v>30</v>
       </c>
       <c r="B27" s="1">
-        <v>1659.3215324955511</v>
+        <v>1659.320776920134</v>
       </c>
       <c r="F27" s="1"/>
     </row>
@@ -1833,7 +1841,7 @@
         <v>5</v>
       </c>
       <c r="B28" s="1">
-        <v>1538.8874336024919</v>
+        <v>1538.8872192788367</v>
       </c>
       <c r="F28" s="1"/>
     </row>
@@ -1842,7 +1850,7 @@
         <v>9</v>
       </c>
       <c r="B29" s="1">
-        <v>1448.1578214384645</v>
+        <v>1448.1581096556899</v>
       </c>
       <c r="F29" s="1"/>
     </row>
@@ -1851,7 +1859,7 @@
         <v>31</v>
       </c>
       <c r="B30" s="1">
-        <v>1512.0057245908365</v>
+        <v>1512.005936200911</v>
       </c>
       <c r="F30" s="1"/>
     </row>
@@ -1860,7 +1868,7 @@
         <v>11</v>
       </c>
       <c r="B31" s="1">
-        <v>1552.6320547296714</v>
+        <v>1552.6314478501497</v>
       </c>
       <c r="F31" s="1"/>
     </row>
@@ -1869,7 +1877,7 @@
         <v>28</v>
       </c>
       <c r="B32" s="1">
-        <v>1535.3832400638016</v>
+        <v>1535.3837409278344</v>
       </c>
       <c r="F32" s="1"/>
     </row>
